--- a/stock/data/두산밥캣.xlsx
+++ b/stock/data/두산밥캣.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1812"/>
+  <dimension ref="A1:G1845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42121,10 +42121,769 @@
         <v>53300</v>
       </c>
       <c r="F1812" t="n">
-        <v>149944</v>
+        <v>154322</v>
       </c>
       <c r="G1812" t="n">
         <v>-1.296296296296296</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>53800</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>54300</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>52400</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>53800</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>178595</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>0.9380863039399625</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>53000</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>53700</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>52100</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>52500</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>184143</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>-2.41635687732342</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>52000</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>53000</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>51300</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>52700</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>203687</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>0.3809523809523809</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>53000</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>53600</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>51600</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>52300</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>203385</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>-0.7590132827324478</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>51700</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>53500</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>51200</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>51500</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>165944</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>-1.529636711281071</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>50800</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>51500</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>51000</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>152749</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>-0.9708737864077669</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>52000</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>54600</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>51700</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>53600</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>410671</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>5.098039215686274</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>51500</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>52500</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>50600</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>51200</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>388652</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>-4.477611940298507</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>51800</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>54400</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>51600</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>53500</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>311241</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>4.4921875</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>53300</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>54000</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>52900</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>53200</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>238444</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>-0.5607476635514018</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>52700</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>53600</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>51300</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>53200</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>259674</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>53200</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>53700</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>50300</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>367585</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>-5.451127819548872</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>50900</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>52500</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>50800</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>51800</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>220097</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>2.982107355864811</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>51400</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>53000</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>50700</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>51600</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>374535</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>-0.3861003861003861</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>52900</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>53600</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>51900</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>53500</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>148372</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>3.682170542635659</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>53600</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>55600</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>53200</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>53600</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>222258</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>0.1869158878504673</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>53700</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>55600</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>53200</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>55300</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>226386</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>3.171641791044776</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>54800</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>55300</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>51300</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>51300</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>365809</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>-7.233273056057866</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>51800</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>52500</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>51400</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>52000</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>216976</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>1.364522417153996</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>52500</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>51600</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>52900</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>211555</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>1.730769230769231</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>53400</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>53900</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>52100</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>52200</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>307916</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>-1.323251417769376</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>51700</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>52600</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>51400</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>52000</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>221800</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>-0.3831417624521072</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>52700</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>52800</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>51500</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>51500</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>229221</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>-0.9615384615384616</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>52500</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>53300</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>52700</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>210006</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>2.330097087378641</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>53300</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>53300</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>52400</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>53100</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>173867</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>0.7590132827324478</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>53200</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>54600</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>52900</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>53600</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>209869</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>0.9416195856873822</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>54500</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>55300</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>53700</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>54500</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>154576</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>1.67910447761194</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>55000</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>57200</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>54400</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>231006</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>2.752293577981652</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>56300</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>55100</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>56600</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>160212</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>1.071428571428571</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>59900</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>55700</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>59900</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>331522</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>5.830388692579505</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>58800</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>59200</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>56000</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>208090</v>
+      </c>
+      <c r="G1843" t="n">
+        <v>-6.51085141903172</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>57800</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>56100</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>56700</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>121690</v>
+      </c>
+      <c r="G1844" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>55700</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>57700</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>55100</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>131323</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>0.5291005291005291</v>
       </c>
     </row>
   </sheetData>
